--- a/multi_it/backend/web-workspace/mavenExecel/src/main/java/org/example/b_poii_jar/excelFile5.xlsx
+++ b/multi_it/backend/web-workspace/mavenExecel/src/main/java/org/example/b_poii_jar/excelFile5.xlsx
@@ -23,13 +23,13 @@
     <t>단어 길이</t>
   </si>
   <si>
-    <t>"우리에게 질문 많았지만 자신 있었다" 호실적 낸 알파벳 피차이의 소감</t>
+    <t>무료배달 이어… 배민도 뛰어든 ‘구독’ 전면전</t>
   </si>
   <si>
-    <t>1일전</t>
+    <t>4시간전</t>
   </si>
   <si>
-    <t>10</t>
+    <t>6</t>
   </si>
 </sst>
 </file>
